--- a/biology/Virologie/Lysogénie/Lysogénie.xlsx
+++ b/biology/Virologie/Lysogénie/Lysogénie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lysog%C3%A9nie</t>
+          <t>Lysogénie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lysogénie, ou cycle lysogénique, est l'une des deux voies de la reproduction virale, l'autre étant le cycle lytique. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lysog%C3%A9nie</t>
+          <t>Lysogénie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Mécanismes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La voie lysogénique est intimement conditionnée par l'intégration du génome viral à celui de la cellule hôte. Cette séquence virale mêlé au génome hôte s'appelle un provirus (ou prophage pour les bactéries).
 Bien que l'intégration du génome viral à celui de l'hôte soit réalisée, la cellule hôte n'entre pas en cycle lytique. Elle continue de vivre et multiplier, donc le provirus est transmis à la génération suivante au cours des divisions cellulaires. C'est la lysogénie.
-Ce phénomène a été particulièrement bien décrit et étudié par le biologiste français François Jacob[1].
+Ce phénomène a été particulièrement bien décrit et étudié par le biologiste français François Jacob.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lysog%C3%A9nie</t>
+          <t>Lysogénie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Terminologie controversée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dichotomie lytique/lysogénique a récemment été critiquée[2], car les deux notions ne sont pas à opposer, ne représentent pas la diversité des mécanismes d'infections des phages et sont souvent la source de classification et d'usage de mots approximatifs.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dichotomie lytique/lysogénique a récemment été critiquée, car les deux notions ne sont pas à opposer, ne représentent pas la diversité des mécanismes d'infections des phages et sont souvent la source de classification et d'usage de mots approximatifs.
 Les auteurs proposent de classer les types d'infection en 4 catégories :
 type I : phages à infection lytique et non tempérée (ex. : T4, T5) ;
 type II : phages à infection chronique et non tempérée (ex. : M13) ;
